--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il10ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H2">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I2">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J2">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.112636017352982</v>
+        <v>0.1255736666666667</v>
       </c>
       <c r="N2">
-        <v>0.112636017352982</v>
+        <v>0.376721</v>
       </c>
       <c r="O2">
-        <v>0.001213080535028517</v>
+        <v>0.001033454989242071</v>
       </c>
       <c r="P2">
-        <v>0.001213080535028517</v>
+        <v>0.001033930111038535</v>
       </c>
       <c r="Q2">
-        <v>0.3338716406038766</v>
+        <v>0.1468455109368889</v>
       </c>
       <c r="R2">
-        <v>0.3338716406038766</v>
+        <v>1.321609598432</v>
       </c>
       <c r="S2">
-        <v>9.652501572199914E-05</v>
+        <v>2.894336817586635E-05</v>
       </c>
       <c r="T2">
-        <v>9.652501572199914E-05</v>
+        <v>2.917726936793027E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H3">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I3">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J3">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>46.293761040899</v>
+        <v>0.004382</v>
       </c>
       <c r="N3">
-        <v>46.293761040899</v>
+        <v>0.013146</v>
       </c>
       <c r="O3">
-        <v>0.4985799545449688</v>
+        <v>3.606329163645316E-05</v>
       </c>
       <c r="P3">
-        <v>0.4985799545449688</v>
+        <v>3.607987141601499E-05</v>
       </c>
       <c r="Q3">
-        <v>137.2223051886838</v>
+        <v>0.005124299114666666</v>
       </c>
       <c r="R3">
-        <v>137.2223051886838</v>
+        <v>0.046118692032</v>
       </c>
       <c r="S3">
-        <v>0.03967208817673049</v>
+        <v>1.010003472171552E-06</v>
       </c>
       <c r="T3">
-        <v>0.03967208817673049</v>
+        <v>1.018165653390205E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H4">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I4">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J4">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.3289492583547</v>
+        <v>72.239166</v>
       </c>
       <c r="N4">
-        <v>46.3289492583547</v>
+        <v>216.717498</v>
       </c>
       <c r="O4">
-        <v>0.4989589287191362</v>
+        <v>0.5945189664610112</v>
       </c>
       <c r="P4">
-        <v>0.4989589287191362</v>
+        <v>0.5947922913008128</v>
       </c>
       <c r="Q4">
-        <v>137.3266088401085</v>
+        <v>84.476288082624</v>
       </c>
       <c r="R4">
-        <v>137.3266088401085</v>
+        <v>760.2865927436161</v>
       </c>
       <c r="S4">
-        <v>0.03970224321348482</v>
+        <v>0.01665034424618373</v>
       </c>
       <c r="T4">
-        <v>0.03970224321348482</v>
+        <v>0.01678490133517879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.96416411419786</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H5">
-        <v>2.96416411419786</v>
+        <v>3.508192</v>
       </c>
       <c r="I5">
-        <v>0.07957016284968256</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J5">
-        <v>0.07957016284968256</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.115881693851963</v>
+        <v>48.97196566666667</v>
       </c>
       <c r="N5">
-        <v>0.115881693851963</v>
+        <v>146.915897</v>
       </c>
       <c r="O5">
-        <v>0.001248036200866511</v>
+        <v>0.4030329255699159</v>
       </c>
       <c r="P5">
-        <v>0.001248036200866511</v>
+        <v>0.4032182163949872</v>
       </c>
       <c r="Q5">
-        <v>0.3434923584084515</v>
+        <v>57.26768605869156</v>
       </c>
       <c r="R5">
-        <v>0.3434923584084515</v>
+        <v>515.4091745282241</v>
       </c>
       <c r="S5">
-        <v>9.930644374524743E-05</v>
+        <v>0.01128750692889077</v>
       </c>
       <c r="T5">
-        <v>9.930644374524743E-05</v>
+        <v>0.01137872510744052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.4346611508212</v>
+        <v>1.169397333333333</v>
       </c>
       <c r="H6">
-        <v>11.4346611508212</v>
+        <v>3.508192</v>
       </c>
       <c r="I6">
-        <v>0.3069525892792884</v>
+        <v>0.02800641390012856</v>
       </c>
       <c r="J6">
-        <v>0.3069525892792884</v>
+        <v>0.02821976945677987</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.112636017352982</v>
+        <v>0.1675105</v>
       </c>
       <c r="N6">
-        <v>0.112636017352982</v>
+        <v>0.335021</v>
       </c>
       <c r="O6">
-        <v>0.001213080535028517</v>
+        <v>0.001378589688194452</v>
       </c>
       <c r="P6">
-        <v>0.001213080535028517</v>
+        <v>0.0009194823217453794</v>
       </c>
       <c r="Q6">
-        <v>1.287954691809366</v>
+        <v>0.1958863320053333</v>
       </c>
       <c r="R6">
-        <v>1.287954691809366</v>
+        <v>1.175317992032</v>
       </c>
       <c r="S6">
-        <v>0.0003723582112313078</v>
+        <v>3.860935340602298E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003723582112313078</v>
+        <v>2.59475791392393E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4346611508212</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H7">
-        <v>11.4346611508212</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I7">
-        <v>0.3069525892792884</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J7">
-        <v>0.3069525892792884</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.293761040899</v>
+        <v>0.1255736666666667</v>
       </c>
       <c r="N7">
-        <v>46.293761040899</v>
+        <v>0.376721</v>
       </c>
       <c r="O7">
-        <v>0.4985799545449688</v>
+        <v>0.001033454989242071</v>
       </c>
       <c r="P7">
-        <v>0.4985799545449688</v>
+        <v>0.001033930111038535</v>
       </c>
       <c r="Q7">
-        <v>529.3534708997678</v>
+        <v>0.4044980624982222</v>
       </c>
       <c r="R7">
-        <v>529.3534708997678</v>
+        <v>3.640482562484</v>
       </c>
       <c r="S7">
-        <v>0.1530404080103281</v>
+        <v>7.97268930770536E-05</v>
       </c>
       <c r="T7">
-        <v>0.1530404080103281</v>
+        <v>8.037119318811753E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4346611508212</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H8">
-        <v>11.4346611508212</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I8">
-        <v>0.3069525892792884</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J8">
-        <v>0.3069525892792884</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>46.3289492583547</v>
+        <v>0.004382</v>
       </c>
       <c r="N8">
-        <v>46.3289492583547</v>
+        <v>0.013146</v>
       </c>
       <c r="O8">
-        <v>0.4989589287191362</v>
+        <v>3.606329163645316E-05</v>
       </c>
       <c r="P8">
-        <v>0.4989589287191362</v>
+        <v>3.607987141601499E-05</v>
       </c>
       <c r="Q8">
-        <v>529.755836242875</v>
+        <v>0.01411530424266666</v>
       </c>
       <c r="R8">
-        <v>529.755836242875</v>
+        <v>0.127037738184</v>
       </c>
       <c r="S8">
-        <v>0.1531567351143588</v>
+        <v>2.78213780593847E-06</v>
       </c>
       <c r="T8">
-        <v>0.1531567351143588</v>
+        <v>2.804621206810857E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4346611508212</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H9">
-        <v>11.4346611508212</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I9">
-        <v>0.3069525892792884</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J9">
-        <v>0.3069525892792884</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.115881693851963</v>
+        <v>72.239166</v>
       </c>
       <c r="N9">
-        <v>0.115881693851963</v>
+        <v>216.717498</v>
       </c>
       <c r="O9">
-        <v>0.001248036200866511</v>
+        <v>0.5945189664610112</v>
       </c>
       <c r="P9">
-        <v>0.001248036200866511</v>
+        <v>0.5947922913008128</v>
       </c>
       <c r="Q9">
-        <v>1.325067902780397</v>
+        <v>232.696897838088</v>
       </c>
       <c r="R9">
-        <v>1.325067902780397</v>
+        <v>2094.272080542792</v>
       </c>
       <c r="S9">
-        <v>0.0003830879433702617</v>
+        <v>0.04586474550389433</v>
       </c>
       <c r="T9">
-        <v>0.0003830879433702617</v>
+        <v>0.04623539409537422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.9539643484854</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H10">
-        <v>21.9539643484854</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I10">
-        <v>0.5893332660083959</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J10">
-        <v>0.5893332660083959</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.112636017352982</v>
+        <v>48.97196566666667</v>
       </c>
       <c r="N10">
-        <v>0.112636017352982</v>
+        <v>146.915897</v>
       </c>
       <c r="O10">
-        <v>0.001213080535028517</v>
+        <v>0.4030329255699159</v>
       </c>
       <c r="P10">
-        <v>0.001213080535028517</v>
+        <v>0.4032182163949872</v>
       </c>
       <c r="Q10">
-        <v>2.472807109322749</v>
+        <v>157.7485611014209</v>
       </c>
       <c r="R10">
-        <v>2.472807109322749</v>
+        <v>1419.737049912788</v>
       </c>
       <c r="S10">
-        <v>0.0007149087136395682</v>
+        <v>0.03109236812239939</v>
       </c>
       <c r="T10">
-        <v>0.0007149087136395682</v>
+        <v>0.03134363611317812</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.9539643484854</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H11">
-        <v>21.9539643484854</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I11">
-        <v>0.5893332660083959</v>
+        <v>0.07714597530321542</v>
       </c>
       <c r="J11">
-        <v>0.5893332660083959</v>
+        <v>0.07773368076821785</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.293761040899</v>
+        <v>0.1675105</v>
       </c>
       <c r="N11">
-        <v>46.293761040899</v>
+        <v>0.335021</v>
       </c>
       <c r="O11">
-        <v>0.4985799545449688</v>
+        <v>0.001378589688194452</v>
       </c>
       <c r="P11">
-        <v>0.4985799545449688</v>
+        <v>0.0009194823217453794</v>
       </c>
       <c r="Q11">
-        <v>1016.331579449199</v>
+        <v>0.5395850459473334</v>
       </c>
       <c r="R11">
-        <v>1016.331579449199</v>
+        <v>3.237510275684</v>
       </c>
       <c r="S11">
-        <v>0.293829752978304</v>
+        <v>0.0001063526460387166</v>
       </c>
       <c r="T11">
-        <v>0.293829752978304</v>
+        <v>7.14747452705751E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.9539643484854</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H12">
-        <v>21.9539643484854</v>
+        <v>42.215075</v>
       </c>
       <c r="I12">
-        <v>0.5893332660083959</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J12">
-        <v>0.5893332660083959</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.3289492583547</v>
+        <v>0.1255736666666667</v>
       </c>
       <c r="N12">
-        <v>46.3289492583547</v>
+        <v>0.376721</v>
       </c>
       <c r="O12">
-        <v>0.4989589287191362</v>
+        <v>0.001033454989242071</v>
       </c>
       <c r="P12">
-        <v>0.4989589287191362</v>
+        <v>0.001033930111038535</v>
       </c>
       <c r="Q12">
-        <v>1017.104100320708</v>
+        <v>1.767033918786111</v>
       </c>
       <c r="R12">
-        <v>1017.104100320708</v>
+        <v>15.903305269075</v>
       </c>
       <c r="S12">
-        <v>0.2940530950660989</v>
+        <v>0.0003482838049618753</v>
       </c>
       <c r="T12">
-        <v>0.2940530950660989</v>
+        <v>0.0003510984047231105</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.9539643484854</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H13">
-        <v>21.9539643484854</v>
+        <v>42.215075</v>
       </c>
       <c r="I13">
-        <v>0.5893332660083959</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J13">
-        <v>0.5893332660083959</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.115881693851963</v>
+        <v>0.004382</v>
       </c>
       <c r="N13">
-        <v>0.115881693851963</v>
+        <v>0.013146</v>
       </c>
       <c r="O13">
-        <v>0.001248036200866511</v>
+        <v>3.606329163645316E-05</v>
       </c>
       <c r="P13">
-        <v>0.001248036200866511</v>
+        <v>3.607987141601499E-05</v>
       </c>
       <c r="Q13">
-        <v>2.544062575468095</v>
+        <v>0.06166215288333333</v>
       </c>
       <c r="R13">
-        <v>2.544062575468095</v>
+        <v>0.55495937595</v>
       </c>
       <c r="S13">
-        <v>0.0007355092503533715</v>
+        <v>1.215365987037838E-05</v>
       </c>
       <c r="T13">
-        <v>0.0007355092503533715</v>
+        <v>1.225187772513348E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.899416590943263</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H14">
-        <v>0.899416590943263</v>
+        <v>42.215075</v>
       </c>
       <c r="I14">
-        <v>0.02414398186263335</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J14">
-        <v>0.02414398186263335</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.112636017352982</v>
+        <v>72.239166</v>
       </c>
       <c r="N14">
-        <v>0.112636017352982</v>
+        <v>216.717498</v>
       </c>
       <c r="O14">
-        <v>0.001213080535028517</v>
+        <v>0.5945189664610112</v>
       </c>
       <c r="P14">
-        <v>0.001213080535028517</v>
+        <v>0.5947922913008128</v>
       </c>
       <c r="Q14">
-        <v>0.1013067027450453</v>
+        <v>1016.52727020915</v>
       </c>
       <c r="R14">
-        <v>0.1013067027450453</v>
+        <v>9148.745431882349</v>
       </c>
       <c r="S14">
-        <v>2.928859443564207E-05</v>
+        <v>0.2003583415983117</v>
       </c>
       <c r="T14">
-        <v>2.928859443564207E-05</v>
+        <v>0.2019775054307668</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.899416590943263</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H15">
-        <v>0.899416590943263</v>
+        <v>42.215075</v>
       </c>
       <c r="I15">
-        <v>0.02414398186263335</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J15">
-        <v>0.02414398186263335</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.293761040899</v>
+        <v>48.97196566666667</v>
       </c>
       <c r="N15">
-        <v>46.293761040899</v>
+        <v>146.915897</v>
       </c>
       <c r="O15">
-        <v>0.4985799545449688</v>
+        <v>0.4030329255699159</v>
       </c>
       <c r="P15">
-        <v>0.4985799545449688</v>
+        <v>0.4032182163949872</v>
       </c>
       <c r="Q15">
-        <v>41.63737673734742</v>
+        <v>689.1184011719195</v>
       </c>
       <c r="R15">
-        <v>41.63737673734742</v>
+        <v>6202.065610547274</v>
       </c>
       <c r="S15">
-        <v>0.01203770537960628</v>
+        <v>0.1358257904830019</v>
       </c>
       <c r="T15">
-        <v>0.01203770537960628</v>
+        <v>0.1369234448442344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.899416590943263</v>
+        <v>14.07169166666667</v>
       </c>
       <c r="H16">
-        <v>0.899416590943263</v>
+        <v>42.215075</v>
       </c>
       <c r="I16">
-        <v>0.02414398186263335</v>
+        <v>0.3370091669084729</v>
       </c>
       <c r="J16">
-        <v>0.02414398186263335</v>
+        <v>0.3395765351784256</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.3289492583547</v>
+        <v>0.1675105</v>
       </c>
       <c r="N16">
-        <v>46.3289492583547</v>
+        <v>0.335021</v>
       </c>
       <c r="O16">
-        <v>0.4989589287191362</v>
+        <v>0.001378589688194452</v>
       </c>
       <c r="P16">
-        <v>0.4989589287191362</v>
+        <v>0.0009194823217453794</v>
       </c>
       <c r="Q16">
-        <v>41.66902560393279</v>
+        <v>2.357156106929167</v>
       </c>
       <c r="R16">
-        <v>41.66902560393279</v>
+        <v>14.142936641575</v>
       </c>
       <c r="S16">
-        <v>0.01204685532519379</v>
+        <v>0.0004645973623270236</v>
       </c>
       <c r="T16">
-        <v>0.01204685532519379</v>
+        <v>0.0003122346209761102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>22.345278</v>
+      </c>
+      <c r="H17">
+        <v>67.03583399999999</v>
+      </c>
+      <c r="I17">
+        <v>0.5351569449859956</v>
+      </c>
+      <c r="J17">
+        <v>0.5392338221006618</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1255736666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.376721</v>
+      </c>
+      <c r="O17">
+        <v>0.001033454989242071</v>
+      </c>
+      <c r="P17">
+        <v>0.001033930111038535</v>
+      </c>
+      <c r="Q17">
+        <v>2.805978491146</v>
+      </c>
+      <c r="R17">
+        <v>25.253806420314</v>
+      </c>
+      <c r="S17">
+        <v>0.0005530606148233219</v>
+      </c>
+      <c r="T17">
+        <v>0.000557530085560271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>22.345278</v>
+      </c>
+      <c r="H18">
+        <v>67.03583399999999</v>
+      </c>
+      <c r="I18">
+        <v>0.5351569449859956</v>
+      </c>
+      <c r="J18">
+        <v>0.5392338221006618</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.004382</v>
+      </c>
+      <c r="N18">
+        <v>0.013146</v>
+      </c>
+      <c r="O18">
+        <v>3.606329163645316E-05</v>
+      </c>
+      <c r="P18">
+        <v>3.607987141601499E-05</v>
+      </c>
+      <c r="Q18">
+        <v>0.09791700819599998</v>
+      </c>
+      <c r="R18">
+        <v>0.8812530737639999</v>
+      </c>
+      <c r="S18">
+        <v>1.929952097830328E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.945548696455818E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>22.345278</v>
+      </c>
+      <c r="H19">
+        <v>67.03583399999999</v>
+      </c>
+      <c r="I19">
+        <v>0.5351569449859956</v>
+      </c>
+      <c r="J19">
+        <v>0.5392338221006618</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>72.239166</v>
+      </c>
+      <c r="N19">
+        <v>216.717498</v>
+      </c>
+      <c r="O19">
+        <v>0.5945189664610112</v>
+      </c>
+      <c r="P19">
+        <v>0.5947922913008128</v>
+      </c>
+      <c r="Q19">
+        <v>1614.204246758148</v>
+      </c>
+      <c r="R19">
+        <v>14527.83822082333</v>
+      </c>
+      <c r="S19">
+        <v>0.3181609538275064</v>
+      </c>
+      <c r="T19">
+        <v>0.3207321205941475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>22.345278</v>
+      </c>
+      <c r="H20">
+        <v>67.03583399999999</v>
+      </c>
+      <c r="I20">
+        <v>0.5351569449859956</v>
+      </c>
+      <c r="J20">
+        <v>0.5392338221006618</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>48.97196566666667</v>
+      </c>
+      <c r="N20">
+        <v>146.915897</v>
+      </c>
+      <c r="O20">
+        <v>0.4030329255699159</v>
+      </c>
+      <c r="P20">
+        <v>0.4032182163949872</v>
+      </c>
+      <c r="Q20">
+        <v>1094.292187028122</v>
+      </c>
+      <c r="R20">
+        <v>9848.629683253097</v>
+      </c>
+      <c r="S20">
+        <v>0.2156858691767644</v>
+      </c>
+      <c r="T20">
+        <v>0.2174288999672807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>22.345278</v>
+      </c>
+      <c r="H21">
+        <v>67.03583399999999</v>
+      </c>
+      <c r="I21">
+        <v>0.5351569449859956</v>
+      </c>
+      <c r="J21">
+        <v>0.5392338221006618</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1675105</v>
+      </c>
+      <c r="N21">
+        <v>0.335021</v>
+      </c>
+      <c r="O21">
+        <v>0.001378589688194452</v>
+      </c>
+      <c r="P21">
+        <v>0.0009194823217453794</v>
+      </c>
+      <c r="Q21">
+        <v>3.743068690419</v>
+      </c>
+      <c r="R21">
+        <v>22.458412142514</v>
+      </c>
+      <c r="S21">
+        <v>0.0007377618459233391</v>
+      </c>
+      <c r="T21">
+        <v>0.0004958159667087514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.894115</v>
+      </c>
+      <c r="I22">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J22">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1255736666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.376721</v>
+      </c>
+      <c r="O22">
+        <v>0.001033454989242071</v>
+      </c>
+      <c r="P22">
+        <v>0.001033930111038535</v>
+      </c>
+      <c r="Q22">
+        <v>0.1189254828191667</v>
+      </c>
+      <c r="R22">
+        <v>0.7135528969150001</v>
+      </c>
+      <c r="S22">
+        <v>2.344030820395425E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.575315819910576E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H23">
+        <v>1.894115</v>
+      </c>
+      <c r="I23">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J23">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.004382</v>
+      </c>
+      <c r="N23">
+        <v>0.013146</v>
+      </c>
+      <c r="O23">
+        <v>3.606329163645316E-05</v>
+      </c>
+      <c r="P23">
+        <v>3.607987141601499E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.004150005965</v>
+      </c>
+      <c r="R23">
+        <v>0.02490003579</v>
+      </c>
+      <c r="S23">
+        <v>8.179695096614803E-07</v>
+      </c>
+      <c r="T23">
+        <v>5.497198661222612E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H24">
+        <v>1.894115</v>
+      </c>
+      <c r="I24">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J24">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>72.239166</v>
+      </c>
+      <c r="N24">
+        <v>216.717498</v>
+      </c>
+      <c r="O24">
+        <v>0.5945189664610112</v>
+      </c>
+      <c r="P24">
+        <v>0.5947922913008128</v>
+      </c>
+      <c r="Q24">
+        <v>68.414643954045</v>
+      </c>
+      <c r="R24">
+        <v>410.4878637242701</v>
+      </c>
+      <c r="S24">
+        <v>0.01348458128511508</v>
+      </c>
+      <c r="T24">
+        <v>0.009062369845345459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.899416590943263</v>
-      </c>
-      <c r="H17">
-        <v>0.899416590943263</v>
-      </c>
-      <c r="I17">
-        <v>0.02414398186263335</v>
-      </c>
-      <c r="J17">
-        <v>0.02414398186263335</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.115881693851963</v>
-      </c>
-      <c r="N17">
-        <v>0.115881693851963</v>
-      </c>
-      <c r="O17">
-        <v>0.001248036200866511</v>
-      </c>
-      <c r="P17">
-        <v>0.001248036200866511</v>
-      </c>
-      <c r="Q17">
-        <v>0.1042259180370634</v>
-      </c>
-      <c r="R17">
-        <v>0.1042259180370634</v>
-      </c>
-      <c r="S17">
-        <v>3.013256339763087E-05</v>
-      </c>
-      <c r="T17">
-        <v>3.013256339763087E-05</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.894115</v>
+      </c>
+      <c r="I25">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J25">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>48.97196566666667</v>
+      </c>
+      <c r="N25">
+        <v>146.915897</v>
+      </c>
+      <c r="O25">
+        <v>0.4030329255699159</v>
+      </c>
+      <c r="P25">
+        <v>0.4032182163949872</v>
+      </c>
+      <c r="Q25">
+        <v>46.37926737435917</v>
+      </c>
+      <c r="R25">
+        <v>278.275604246155</v>
+      </c>
+      <c r="S25">
+        <v>0.009141390858859467</v>
+      </c>
+      <c r="T25">
+        <v>0.006143510362853485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9470575000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.894115</v>
+      </c>
+      <c r="I26">
+        <v>0.02268149890218751</v>
+      </c>
+      <c r="J26">
+        <v>0.01523619249591488</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1675105</v>
+      </c>
+      <c r="N26">
+        <v>0.335021</v>
+      </c>
+      <c r="O26">
+        <v>0.001378589688194452</v>
+      </c>
+      <c r="P26">
+        <v>0.0009194823217453794</v>
+      </c>
+      <c r="Q26">
+        <v>0.15864207535375</v>
+      </c>
+      <c r="R26">
+        <v>0.6345683014150001</v>
+      </c>
+      <c r="S26">
+        <v>3.126848049934948E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.400940965070334E-05</v>
       </c>
     </row>
   </sheetData>
